--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Number</t>
   </si>
@@ -86,10 +83,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="ID"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A21" totalsRowShown="0">
+  <autoFilter ref="A1:A21"/>
+  <tableColumns count="1">
     <tableColumn id="2" name="Number">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
@@ -361,203 +357,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.96249529307062986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.52498926227511467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RAND()</f>
-        <v>1.9533352331253639E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="A3:A21" ca="1" si="0">RAND()</f>
+        <v>0.71092521069210535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38726387559842312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47430233772480712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80442498913118976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88380747085823919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92351483867173867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12582967279017887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83752134655647104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39581445855059971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13487007093988979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53712833412988159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94425110782304733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82340107179159838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87424726048714851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55993761464581782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72263828147356657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18922453811942608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23878341179054996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68000089083977566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96932281791749431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.028522242762004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32531585542443187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6230400138179575E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51378794856911392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67648090193346833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50269682761998113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9471613940796576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82994107872703682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75888774267662895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33654771315335386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63330880067076734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79195760843350116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58922699228700448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6243953594495959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60546470595990742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59614139728032722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9220997826513937E-2</v>
       </c>
     </row>
   </sheetData>
